--- a/Projects/CCNAYARMX/National/Data/CCNayarTemplate2020Nacionalv0.5.xlsx
+++ b/Projects/CCNAYARMX/National/Data/CCNayarTemplate2020Nacionalv0.5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -94,6 +94,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -105,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="406">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1792,6 +1794,9 @@
     <t xml:space="preserve">score_based_result</t>
   </si>
   <si>
+    <t xml:space="preserve">composition_based_result</t>
+  </si>
+  <si>
     <t xml:space="preserve">Component KPIs</t>
   </si>
   <si>
@@ -1834,7 +1839,7 @@
     <t xml:space="preserve">sum</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posicion - Nacional,Respeto - Nacional,SOCI - Nacional,Cap. Fria - Nacional,Llenado 75% - Nacional,Cattman Mercadeo - Nacional,Precios en cooler - Nacional</t>
+    <t xml:space="preserve">Primera posicion - Nacional,Respeto - Nacional,SOCI - Nacional,Cap. Fria - Nacional,Llenado 75% - Nacional,Cattman Mercadeo - Nacional,Precios en cooler – Nacional,Cattman Portafolio – Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">Comidas - Nacional,Plat. Dinamicas 1 - Nacional,Plat. Dinamicas 2 - Nacional</t>
@@ -2855,24 +2860,24 @@
   </sheetPr>
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G73" activeCellId="0" sqref="G73"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.3765182186235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="89.9797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="174.068825910931"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.6599190283401"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="177.283400809717"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -3993,7 +3998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>36</v>
       </c>
@@ -4834,7 +4839,7 @@
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
     </row>
-    <row r="73" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="22" t="n">
         <v>76</v>
       </c>
@@ -4915,7 +4920,7 @@
   <autoFilter ref="A1:K75">
     <filterColumn colId="3">
       <customFilters and="true">
-        <customFilter operator="equal" val="Ejecucion Sombra - Nacional"/>
+        <customFilter operator="equal" val="Cattman Portafolio - Nacional"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -4940,16 +4945,16 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5028,18 +5033,18 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.0283400809717"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5182,21 +5187,21 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="72.6275303643725"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="73.8056680161943"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="61.4858299595142"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5318,28 +5323,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:13"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.9878542510121"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.0971659919028"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.165991902834"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="127.684210526316"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="101.761133603239"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="114.295546558704"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="130.04048582996"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="103.692307692308"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5362,10 +5369,10 @@
         <v>345</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>347</v>
@@ -5377,12 +5384,15 @@
         <v>349</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5401,26 +5411,26 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="3" t="s">
+        <v>352</v>
+      </c>
       <c r="K2" s="15"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="7"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O2" s="3"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="n">
         <v>6</v>
       </c>
@@ -5435,22 +5445,23 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="15"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="n">
@@ -5467,22 +5478,23 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="J4" s="3"/>
+      <c r="I4" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>352</v>
+      </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="n">
@@ -5499,28 +5511,29 @@
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="J5" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="L5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="n">
@@ -5537,28 +5550,29 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="I6" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="K6" s="10" t="n">
+      <c r="L6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -5575,24 +5589,25 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="G7" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
-    </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="n">
         <v>37</v>
       </c>
@@ -5607,22 +5622,23 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>77</v>
       </c>
@@ -5637,20 +5653,21 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="I9" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="K9" s="4"/>
-      <c r="L9" s="19"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" s="30" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="n">
@@ -5667,23 +5684,23 @@
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="80" t="s">
-        <v>361</v>
-      </c>
-      <c r="I10" s="78" t="s">
-        <v>359</v>
-      </c>
-      <c r="J10" s="29"/>
+      <c r="I10" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="J10" s="78" t="s">
+        <v>360</v>
+      </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O10" s="29"/>
+    </row>
+    <row r="11" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="n">
         <v>64</v>
       </c>
@@ -5698,22 +5715,23 @@
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="78" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="I11" s="78" t="s">
-        <v>359</v>
-      </c>
-      <c r="J11" s="29"/>
+      <c r="I11" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>360</v>
+      </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
-    </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O11" s="29"/>
+    </row>
+    <row r="12" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="n">
         <v>70</v>
       </c>
@@ -5728,20 +5746,21 @@
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="78" t="s">
+      <c r="G12" s="78"/>
+      <c r="H12" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="78" t="s">
-        <v>363</v>
-      </c>
       <c r="I12" s="78" t="s">
-        <v>359</v>
-      </c>
-      <c r="J12" s="29"/>
+        <v>364</v>
+      </c>
+      <c r="J12" s="78" t="s">
+        <v>360</v>
+      </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="88" t="n">
@@ -5752,24 +5771,31 @@
         <v>105</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E13" s="92"/>
       <c r="F13" s="92"/>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="93" t="s">
-        <v>365</v>
-      </c>
-      <c r="I13" s="92" t="s">
-        <v>359</v>
-      </c>
-      <c r="J13" s="92"/>
+      <c r="I13" s="93" t="s">
+        <v>366</v>
+      </c>
+      <c r="J13" s="92" t="s">
+        <v>360</v>
+      </c>
       <c r="K13" s="92"/>
       <c r="L13" s="92"/>
       <c r="M13" s="92"/>
       <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="78"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="93"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5789,7 +5815,7 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5866,7 +5892,7 @@
         <v>219</v>
       </c>
       <c r="F2" s="96" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G2" s="96" t="s">
         <v>207</v>
@@ -5886,7 +5912,7 @@
         <v>210</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O2" s="98" t="s">
         <v>49</v>
@@ -5913,20 +5939,20 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.5222672064777"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.8785425101215"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="51.8461538461539"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="64.4858299595142"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="52.7044534412956"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="65.5587044534413"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="75.6275303643725"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -5941,7 +5967,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -5950,25 +5976,25 @@
         <v>212</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -5994,22 +6020,22 @@
         <v>131</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>209</v>
@@ -6042,7 +6068,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -6050,8 +6076,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.0283400809717"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6097,19 +6123,19 @@
         <v>17</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G2" s="78" t="s">
         <v>210</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -6130,7 +6156,7 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -6139,11 +6165,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6155,7 +6181,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D1" s="99"/>
       <c r="E1" s="101"/>
@@ -6172,7 +6198,7 @@
         <v>189</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D2" s="102"/>
       <c r="E2" s="102"/>
@@ -6320,21 +6346,21 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="131.757085020243"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="134.113360323887"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6346,25 +6372,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D1" s="99" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E1" s="101" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F1" s="99" t="s">
         <v>284</v>
       </c>
       <c r="G1" s="101" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1" s="99" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I1" s="101" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6378,19 +6404,19 @@
         <v>190</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E2" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="102" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G2" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I2" s="102" t="n">
         <v>1</v>
@@ -6407,19 +6433,19 @@
         <v>190</v>
       </c>
       <c r="D3" s="102" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E3" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="102" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G3" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="102" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I3" s="102" t="n">
         <v>1</v>
@@ -6436,13 +6462,13 @@
         <v>190</v>
       </c>
       <c r="D4" s="102" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E4" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G4" s="102" t="n">
         <v>3</v>
@@ -6465,19 +6491,19 @@
         <v>190</v>
       </c>
       <c r="D5" s="102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E5" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G5" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="103" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I5" s="102" t="n">
         <v>1</v>
@@ -6502,21 +6528,21 @@
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.9473684210526"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.1255060728745"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="91.6923076923077"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="89.9797570850202"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -6699,28 +6725,28 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="111.939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="113.866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="86.8744939271255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="104.546558704453"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.165991902834"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="88.4817813765182"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="106.477732793522"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="62.3441295546559"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -7183,7 +7209,7 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -7195,14 +7221,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="51.5222672064777"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -7328,18 +7354,18 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.9473684210526"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="103.368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="105.19028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="151.036437246964"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="153.716599190283"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -7600,21 +7626,21 @@
   </sheetPr>
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="102.085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="108.404858299595"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="103.906882591093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="110.331983805668"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="61.7004048582996"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="62.7732793522267"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -8189,27 +8215,27 @@
   </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="75.7327935222672"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="77.1255060728745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -8526,25 +8552,25 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.3805668016194"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.9554655870445"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="91.0526315789474"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="92.5506072874494"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -8743,20 +8769,20 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="87.5141700404858"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="86.1255060728745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="89.1214574898785"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/National/Data/CCNayarTemplate2020Nacionalv0.5.xlsx
+++ b/Projects/CCNAYARMX/National/Data/CCNayarTemplate2020Nacionalv0.5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
     <sheet name="Ejecucion Sombra Prerequisite" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="a" vbProcedure="false">KPIs!$A$1:$K$73</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="aa" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="aaa" vbProcedure="false">KPIs!$A$1:$K$73</definedName>
@@ -96,6 +96,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -107,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="407">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -995,6 +998,9 @@
   </si>
   <si>
     <t xml:space="preserve">Specific Scene type KPI where if a competitor Brand is detected in scene then there must be a specific coke product and minimum facings. Additionally a POSM Material Is required. If Facings and SKU constraints are met and POSM then KPI rewards 5 points. If no POSM detected but other conditions satisfied, then 3 points are awarded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico</t>
   </si>
   <si>
     <t xml:space="preserve">ignore_stacking</t>
@@ -2855,29 +2861,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6720647773279"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.6599190283401"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="91.6923076923077"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="177.283400809717"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.6963562753036"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="182.210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -2917,7 +2923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="8" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -2945,7 +2951,7 @@
       </c>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" s="12" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="12" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -2968,7 +2974,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="41.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -2995,7 +3001,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -3022,7 +3028,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="76" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="76" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -3049,7 +3055,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -3076,7 +3082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="51" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -3103,7 +3109,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -3130,7 +3136,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -3157,7 +3163,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
@@ -3182,7 +3188,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -3213,7 +3219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
@@ -3236,7 +3242,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>12</v>
       </c>
@@ -3294,7 +3300,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>13</v>
       </c>
@@ -3321,7 +3327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>14</v>
       </c>
@@ -3348,7 +3354,7 @@
       </c>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="32" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
@@ -3375,7 +3381,7 @@
       </c>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
@@ -3400,7 +3406,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>17</v>
       </c>
@@ -3425,7 +3431,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
@@ -3450,7 +3456,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>19</v>
       </c>
@@ -3475,7 +3481,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
@@ -3500,7 +3506,7 @@
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>21</v>
       </c>
@@ -3525,7 +3531,7 @@
       </c>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>22</v>
       </c>
@@ -3552,7 +3558,7 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>84</v>
       </c>
@@ -3575,7 +3581,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>23</v>
       </c>
@@ -3602,7 +3608,7 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>24</v>
       </c>
@@ -3631,7 +3637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>25</v>
       </c>
@@ -3658,7 +3664,7 @@
       </c>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>26</v>
       </c>
@@ -3685,7 +3691,7 @@
       </c>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>97</v>
       </c>
@@ -3708,7 +3714,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>27</v>
       </c>
@@ -3735,7 +3741,7 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>28</v>
       </c>
@@ -3764,7 +3770,7 @@
       </c>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>29</v>
       </c>
@@ -3793,7 +3799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>30</v>
       </c>
@@ -3822,7 +3828,7 @@
       </c>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>31</v>
       </c>
@@ -3851,7 +3857,7 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -3876,7 +3882,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>32</v>
       </c>
@@ -3905,7 +3911,7 @@
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>33</v>
       </c>
@@ -3934,7 +3940,7 @@
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>34</v>
       </c>
@@ -3967,7 +3973,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>35</v>
       </c>
@@ -4031,7 +4037,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>37</v>
       </c>
@@ -4054,7 +4060,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>38</v>
       </c>
@@ -4085,7 +4091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="22" t="n">
         <v>39</v>
       </c>
@@ -4110,7 +4116,7 @@
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
     </row>
-    <row r="46" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="22" t="n">
         <v>39</v>
       </c>
@@ -4135,7 +4141,7 @@
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
     </row>
-    <row r="47" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="n">
         <v>40</v>
       </c>
@@ -4162,7 +4168,7 @@
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
     </row>
-    <row r="48" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="n">
         <v>41</v>
       </c>
@@ -4189,7 +4195,7 @@
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="22" t="n">
         <v>42</v>
       </c>
@@ -4216,7 +4222,7 @@
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="n">
         <v>43</v>
       </c>
@@ -4243,7 +4249,7 @@
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
     </row>
-    <row r="51" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="22" t="n">
         <v>44</v>
       </c>
@@ -4270,7 +4276,7 @@
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
     </row>
-    <row r="52" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="22" t="n">
         <v>45</v>
       </c>
@@ -4295,7 +4301,7 @@
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
     </row>
-    <row r="53" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="22" t="n">
         <v>45</v>
       </c>
@@ -4322,7 +4328,7 @@
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
     </row>
-    <row r="54" customFormat="false" ht="75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="22" t="n">
         <v>46</v>
       </c>
@@ -4349,7 +4355,7 @@
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
     </row>
-    <row r="55" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="n">
         <v>47</v>
       </c>
@@ -4376,7 +4382,7 @@
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
     </row>
-    <row r="56" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="n">
         <v>48</v>
       </c>
@@ -4403,7 +4409,7 @@
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
     </row>
-    <row r="57" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="22" t="n">
         <v>49</v>
       </c>
@@ -4430,7 +4436,7 @@
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
     </row>
-    <row r="58" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22" t="n">
         <v>50</v>
       </c>
@@ -4457,7 +4463,7 @@
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
     </row>
-    <row r="59" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="n">
         <v>51</v>
       </c>
@@ -4486,7 +4492,7 @@
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
     </row>
-    <row r="60" customFormat="false" ht="21.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="22" t="n">
         <v>52</v>
       </c>
@@ -4513,7 +4519,7 @@
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
     </row>
-    <row r="61" customFormat="false" ht="26.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="n">
         <v>53</v>
       </c>
@@ -4540,7 +4546,7 @@
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
     </row>
-    <row r="62" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="n">
         <v>54</v>
       </c>
@@ -4567,7 +4573,7 @@
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
     </row>
-    <row r="63" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="22" t="n">
         <v>55</v>
       </c>
@@ -4594,7 +4600,7 @@
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
     </row>
-    <row r="64" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="n">
         <v>56</v>
       </c>
@@ -4621,7 +4627,7 @@
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
     </row>
-    <row r="65" s="30" customFormat="true" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="30" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>63</v>
       </c>
@@ -4644,7 +4650,7 @@
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
     </row>
-    <row r="66" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>64</v>
       </c>
@@ -4667,14 +4673,16 @@
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C67" s="4"/>
+      <c r="C67" s="4" t="n">
+        <v>1.2</v>
+      </c>
       <c r="D67" s="4" t="s">
         <v>174</v>
       </c>
@@ -4696,14 +4704,16 @@
       </c>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C68" s="4"/>
+      <c r="C68" s="4" t="n">
+        <v>1.2</v>
+      </c>
       <c r="D68" s="4" t="s">
         <v>179</v>
       </c>
@@ -4725,14 +4735,16 @@
       </c>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C69" s="4"/>
+      <c r="C69" s="4" t="n">
+        <v>0.3</v>
+      </c>
       <c r="D69" s="4" t="s">
         <v>181</v>
       </c>
@@ -4754,14 +4766,16 @@
       </c>
       <c r="K69" s="19"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="4"/>
+      <c r="C70" s="4" t="n">
+        <v>0.3</v>
+      </c>
       <c r="D70" s="4" t="s">
         <v>183</v>
       </c>
@@ -4783,7 +4797,7 @@
       </c>
       <c r="K70" s="19"/>
     </row>
-    <row r="71" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>69</v>
       </c>
@@ -4816,7 +4830,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>70</v>
       </c>
@@ -4839,7 +4853,7 @@
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
     </row>
-    <row r="73" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="22" t="n">
         <v>76</v>
       </c>
@@ -4870,7 +4884,7 @@
       <c r="J73" s="25"/>
       <c r="K73" s="25"/>
     </row>
-    <row r="74" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>77</v>
       </c>
@@ -4895,7 +4909,7 @@
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="n">
         <v>79</v>
       </c>
@@ -4916,14 +4930,45 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
+    <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J76" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" s="19"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:K75">
-    <filterColumn colId="3">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Cattman Portafolio - Nacional"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K76"/>
   <mergeCells count="1">
     <mergeCell ref="I18:I24"/>
   </mergeCells>
@@ -4952,9 +4997,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5040,11 +5085,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.9919028340081"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5060,7 +5105,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E1" s="77" t="s">
         <v>4</v>
@@ -5080,13 +5125,13 @@
         <v>136</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>135</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5100,13 +5145,13 @@
         <v>136</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>137</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5120,13 +5165,13 @@
         <v>136</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>156</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5140,13 +5185,13 @@
         <v>136</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>157</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,13 +5205,13 @@
         <v>136</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>157</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -5194,14 +5239,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="73.8056680161943"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="62.9878542510121"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5226,16 +5271,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="83" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1" s="84" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -5261,17 +5306,17 @@
         <v>118</v>
       </c>
       <c r="G2" s="86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H2" s="0"/>
       <c r="I2" s="85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J2" s="85" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5291,20 +5336,20 @@
         <v>126</v>
       </c>
       <c r="F3" s="85" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G3" s="85"/>
       <c r="H3" s="87" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I3" s="85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J3" s="85" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -5325,24 +5370,24 @@
   </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.3805668016194"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.0971659919028"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="114.295546558704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="117.400809716599"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="130.04048582996"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="103.692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="133.46963562753"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="106.477732793522"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
@@ -5363,28 +5408,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>9</v>
@@ -5393,7 +5438,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5416,10 +5461,10 @@
         <v>14</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -5450,10 +5495,10 @@
         <v>14</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -5483,10 +5528,10 @@
         <v>14</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5516,13 +5561,13 @@
         <v>14</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L5" s="10" t="n">
         <v>1</v>
@@ -5555,13 +5600,13 @@
         <v>14</v>
       </c>
       <c r="I6" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>357</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>356</v>
       </c>
       <c r="L6" s="10" t="n">
         <v>1</v>
@@ -5589,17 +5634,17 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -5627,10 +5672,10 @@
         <v>14</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>361</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>360</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -5661,7 +5706,7 @@
         <v>189</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -5689,10 +5734,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="80" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J10" s="78" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -5720,10 +5765,10 @@
         <v>14</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J11" s="78" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
@@ -5751,10 +5796,10 @@
         <v>14</v>
       </c>
       <c r="I12" s="78" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J12" s="78" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -5771,7 +5816,7 @@
         <v>105</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E13" s="92"/>
       <c r="F13" s="92"/>
@@ -5780,10 +5825,10 @@
         <v>14</v>
       </c>
       <c r="I13" s="93" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J13" s="92" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K13" s="92"/>
       <c r="L13" s="92"/>
@@ -5839,34 +5884,34 @@
         <v>7</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F1" s="39" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N1" s="39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O1" s="39" t="s">
         <v>9</v>
@@ -5889,30 +5934,30 @@
         <v>123</v>
       </c>
       <c r="E2" s="97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F2" s="96" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G2" s="96" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H2" s="96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I2" s="96"/>
       <c r="J2" s="97"/>
       <c r="K2" s="96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L2" s="98" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M2" s="98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O2" s="98" t="s">
         <v>49</v>
@@ -5946,13 +5991,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.0242914979757"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.9514170040486"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="52.7044534412956"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="65.5587044534413"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="53.9878542510122"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="77.6599190283401"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -5967,34 +6012,34 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -6020,28 +6065,28 @@
         <v>131</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>23</v>
@@ -6076,8 +6121,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6102,10 +6147,10 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -6123,19 +6168,19 @@
         <v>17</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6165,11 +6210,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6181,7 +6226,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D1" s="99"/>
       <c r="E1" s="101"/>
@@ -6198,7 +6243,7 @@
         <v>189</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D2" s="102"/>
       <c r="E2" s="102"/>
@@ -6353,14 +6398,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.0607287449393"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="134.113360323887"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="137.753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6372,25 +6417,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D1" s="99" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E1" s="101" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F1" s="99" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G1" s="101" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1" s="99" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I1" s="101" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6404,19 +6449,19 @@
         <v>190</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E2" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G2" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="102" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I2" s="102" t="n">
         <v>1</v>
@@ -6433,19 +6478,19 @@
         <v>190</v>
       </c>
       <c r="D3" s="102" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E3" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="102" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G3" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="102" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I3" s="102" t="n">
         <v>1</v>
@@ -6462,19 +6507,19 @@
         <v>190</v>
       </c>
       <c r="D4" s="102" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E4" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G4" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H4" s="102" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I4" s="102" t="n">
         <v>1</v>
@@ -6491,19 +6536,19 @@
         <v>190</v>
       </c>
       <c r="D5" s="102" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E5" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G5" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="103" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I5" s="102" t="n">
         <v>1</v>
@@ -6535,14 +6580,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.0566801619433"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="94.1578947368421"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="91.6923076923077"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -6568,31 +6613,31 @@
         <v>8</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J1" s="39" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P1" s="39" t="s">
         <v>9</v>
@@ -6612,40 +6657,40 @@
         <v>55</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F2" s="43" t="s">
         <v>56</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J2" s="43" t="s">
         <v>91</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O2" s="43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P2" s="44" t="s">
         <v>49</v>
@@ -6665,40 +6710,40 @@
         <v>55</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>56</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>91</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L3" s="43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M3" s="44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N3" s="44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O3" s="43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P3" s="44" t="s">
         <v>49</v>
@@ -6732,21 +6777,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="113.866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="116.975708502024"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="88.4817813765182"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="73.0566801619433"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="106.477732793522"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.8380566801619"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="63.9514170040486"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.0283400809717"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -6766,7 +6811,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F1" s="39" t="s">
         <v>5</v>
@@ -6775,37 +6820,37 @@
         <v>8</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I1" s="39" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N1" s="39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q1" s="39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R1" s="39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>9</v>
@@ -6822,39 +6867,39 @@
         <v>30</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="47" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I2" s="48" t="s">
         <v>91</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L2" s="47"/>
       <c r="M2" s="47"/>
       <c r="N2" s="47"/>
       <c r="O2" s="47"/>
       <c r="P2" s="49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q2" s="49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R2" s="50" t="n">
         <v>100</v>
@@ -6872,41 +6917,41 @@
         <v>43</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I3" s="48" t="s">
         <v>91</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L3" s="48"/>
       <c r="M3" s="46"/>
       <c r="N3" s="46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O3" s="46"/>
       <c r="P3" s="49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q3" s="49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R3" s="50"/>
       <c r="S3" s="49" t="s">
@@ -6924,41 +6969,41 @@
         <v>46</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I4" s="48" t="s">
         <v>91</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L4" s="48"/>
       <c r="M4" s="46"/>
       <c r="N4" s="46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O4" s="46"/>
       <c r="P4" s="49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R4" s="50"/>
       <c r="S4" s="49" t="s">
@@ -6976,52 +7021,52 @@
         <v>92</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I5" s="48" t="s">
         <v>91</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L5" s="47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N5" s="48"/>
       <c r="O5" s="48"/>
       <c r="P5" s="49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R5" s="52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S5" s="49" t="s">
         <v>49</v>
       </c>
       <c r="T5" s="49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U5" s="44"/>
     </row>
@@ -7033,48 +7078,48 @@
         <v>101</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I6" s="48" t="s">
         <v>91</v>
       </c>
       <c r="J6" s="48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M6" s="48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N6" s="48"/>
       <c r="O6" s="53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P6" s="49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q6" s="49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R6" s="52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S6" s="49" t="s">
         <v>49</v>
@@ -7089,43 +7134,43 @@
         <v>105</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>91</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M7" s="48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
       <c r="P7" s="49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R7" s="52" t="n">
         <v>23</v>
@@ -7143,48 +7188,48 @@
         <v>113</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>91</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K8" s="48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M8" s="48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N8" s="48"/>
       <c r="O8" s="53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P8" s="49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R8" s="52" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S8" s="49" t="s">
         <v>49</v>
@@ -7221,14 +7266,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -7254,7 +7299,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>5</v>
@@ -7263,25 +7308,25 @@
         <v>8</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N1" s="39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q1" s="39" t="s">
         <v>9</v>
@@ -7300,28 +7345,28 @@
         <v>35</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K2" s="44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L2" s="44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
@@ -7354,18 +7399,18 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="105.19028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="107.975708502024"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="153.716599190283"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="158"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -7387,7 +7432,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G1" s="39" t="s">
         <v>9</v>
@@ -7396,7 +7441,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7407,7 +7452,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>41</v>
@@ -7416,7 +7461,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G2" s="44" t="s">
         <v>34</v>
@@ -7432,7 +7477,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>41</v>
@@ -7441,7 +7486,7 @@
         <v>64</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>23</v>
@@ -7457,7 +7502,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>41</v>
@@ -7466,7 +7511,7 @@
         <v>83</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>23</v>
@@ -7482,7 +7527,7 @@
         <v>87</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>41</v>
@@ -7491,7 +7536,7 @@
         <v>89</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G5" s="44" t="s">
         <v>23</v>
@@ -7507,7 +7552,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>41</v>
@@ -7516,7 +7561,7 @@
         <v>83</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G6" s="44" t="s">
         <v>23</v>
@@ -7532,7 +7577,7 @@
         <v>99</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>41</v>
@@ -7541,7 +7586,7 @@
         <v>89</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G7" s="44" t="s">
         <v>23</v>
@@ -7557,7 +7602,7 @@
         <v>108</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>41</v>
@@ -7566,7 +7611,7 @@
         <v>83</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G8" s="44" t="s">
         <v>23</v>
@@ -7582,7 +7627,7 @@
         <v>111</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>41</v>
@@ -7591,7 +7636,7 @@
         <v>89</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G9" s="44" t="s">
         <v>23</v>
@@ -7626,21 +7671,21 @@
   </sheetPr>
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="103.906882591093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="110.331983805668"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="106.692307692308"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="113.331983805668"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="62.7732793522267"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="64.4858299595142"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -7665,7 +7710,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -7674,34 +7719,34 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>9</v>
@@ -7710,7 +7755,7 @@
         <v>10</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7721,40 +7766,40 @@
         <v>65</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>68</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
       <c r="N2" s="60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O2" s="44"/>
       <c r="P2" s="61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q2" s="44"/>
       <c r="R2" s="61" t="s">
@@ -7777,34 +7822,34 @@
         <v>67</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G3" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="J3" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="H3" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>274</v>
-      </c>
       <c r="K3" s="41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
       <c r="N3" s="60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O3" s="44"/>
       <c r="P3" s="61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q3" s="44"/>
       <c r="R3" s="61" t="s">
@@ -7827,34 +7872,34 @@
         <v>67</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O4" s="44"/>
       <c r="P4" s="61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="44"/>
       <c r="R4" s="61" t="s">
@@ -7877,34 +7922,34 @@
         <v>67</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L5" s="41"/>
       <c r="M5" s="41"/>
       <c r="N5" s="60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O5" s="44"/>
       <c r="P5" s="61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="44"/>
       <c r="R5" s="61" t="s">
@@ -7927,34 +7972,34 @@
         <v>67</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
       <c r="N6" s="60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O6" s="44"/>
       <c r="P6" s="61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q6" s="44"/>
       <c r="R6" s="61" t="s">
@@ -7977,34 +8022,34 @@
         <v>67</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
       <c r="N7" s="60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O7" s="44"/>
       <c r="P7" s="61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="44"/>
       <c r="R7" s="61" t="s">
@@ -8027,32 +8072,32 @@
         <v>67</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I8" s="62"/>
       <c r="J8" s="41" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L8" s="41"/>
       <c r="M8" s="32"/>
       <c r="N8" s="60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O8" s="44"/>
       <c r="P8" s="61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="44"/>
       <c r="R8" s="61" t="s">
@@ -8069,38 +8114,38 @@
         <v>85</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="61" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K9" s="61"/>
       <c r="L9" s="61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M9" s="44"/>
       <c r="N9" s="60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O9" s="44"/>
       <c r="P9" s="61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="44"/>
       <c r="R9" s="61" t="s">
@@ -8124,27 +8169,27 @@
       </c>
       <c r="E10" s="61"/>
       <c r="F10" s="42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H10" s="61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="61" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K10" s="61"/>
       <c r="L10" s="61"/>
       <c r="M10" s="61"/>
       <c r="N10" s="60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O10" s="63"/>
       <c r="P10" s="61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="61"/>
       <c r="R10" s="61" t="s">
@@ -8168,27 +8213,27 @@
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I11" s="61"/>
       <c r="J11" s="61" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O11" s="63"/>
       <c r="P11" s="61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="61"/>
       <c r="R11" s="61" t="s">
@@ -8215,27 +8260,27 @@
   </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="77.1255060728745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="79.1619433198381"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -8256,7 +8301,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -8268,25 +8313,25 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>9</v>
@@ -8309,19 +8354,19 @@
         <v>176</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G2" s="66" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>175</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J2" s="31" t="n">
         <v>0.4</v>
@@ -8330,10 +8375,10 @@
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
       <c r="N2" s="44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P2" s="52" t="s">
         <v>23</v>
@@ -8356,19 +8401,19 @@
         <v>180</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>175</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J3" s="31" t="n">
         <v>0.4</v>
@@ -8377,10 +8422,10 @@
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
       <c r="N3" s="44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P3" s="52" t="s">
         <v>23</v>
@@ -8403,19 +8448,19 @@
         <v>182</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>175</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J4" s="31" t="n">
         <v>0.1</v>
@@ -8424,10 +8469,10 @@
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
       <c r="N4" s="44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P4" s="52" t="s">
         <v>23</v>
@@ -8450,19 +8495,19 @@
         <v>184</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G5" s="66" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>160</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J5" s="31" t="n">
         <v>0.1</v>
@@ -8471,10 +8516,10 @@
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
       <c r="N5" s="44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P5" s="52" t="s">
         <v>23</v>
@@ -8497,35 +8542,35 @@
         <v>186</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>175</v>
       </c>
       <c r="I6" s="68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J6" s="68"/>
       <c r="K6" s="69" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L6" s="69" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M6" s="69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N6" s="44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P6" s="44" t="s">
         <v>23</v>
@@ -8558,19 +8603,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="92.5506072874494"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="95.0161943319838"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -8589,7 +8634,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -8598,31 +8643,31 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="61" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8633,33 +8678,33 @@
         <v>19</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H2" s="71" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I2" s="71" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J2" s="71"/>
       <c r="K2" s="44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L2" s="56"/>
       <c r="M2" s="56" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N2" s="56"/>
       <c r="O2" s="56" t="s">
@@ -8675,33 +8720,33 @@
         <v>24</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G3" s="71" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I3" s="71" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L3" s="56"/>
       <c r="M3" s="56" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N3" s="56"/>
       <c r="O3" s="56" t="s">
@@ -8717,33 +8762,33 @@
         <v>26</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G4" s="71" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H4" s="71" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I4" s="71" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L4" s="56"/>
       <c r="M4" s="56" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N4" s="56"/>
       <c r="O4" s="56" t="s">
@@ -8776,13 +8821,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="89.1214574898785"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="87.6234817813765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.587044534413"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.9554655870445"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -8797,16 +8842,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8821,13 +8866,13 @@
       </c>
       <c r="D2" s="65"/>
       <c r="E2" s="44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F2" s="44" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="75" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8842,13 +8887,13 @@
       </c>
       <c r="D3" s="65"/>
       <c r="E3" s="44" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F3" s="44" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8863,13 +8908,13 @@
       </c>
       <c r="D4" s="52"/>
       <c r="E4" s="44" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F4" s="44" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8886,13 +8931,13 @@
         <v>28</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8907,13 +8952,13 @@
       </c>
       <c r="D6" s="65"/>
       <c r="E6" s="44" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F6" s="44" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="75" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8928,13 +8973,13 @@
       </c>
       <c r="D7" s="65"/>
       <c r="E7" s="44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F7" s="44" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="75" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8949,13 +8994,13 @@
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="44" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F8" s="44" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8972,13 +9017,13 @@
         <v>28</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G9" s="75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8993,13 +9038,13 @@
       </c>
       <c r="D10" s="52"/>
       <c r="E10" s="44" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F10" s="44" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9014,13 +9059,13 @@
       </c>
       <c r="D11" s="65"/>
       <c r="E11" s="44" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F11" s="44" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="75" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9035,13 +9080,13 @@
       </c>
       <c r="D12" s="65"/>
       <c r="E12" s="44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F12" s="44" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="75" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9056,13 +9101,13 @@
       </c>
       <c r="D13" s="65"/>
       <c r="E13" s="44" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F13" s="44" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9079,13 +9124,13 @@
         <v>28</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G14" s="75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9100,13 +9145,13 @@
       </c>
       <c r="D15" s="65"/>
       <c r="E15" s="44" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F15" s="44" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9121,13 +9166,13 @@
       </c>
       <c r="D16" s="65"/>
       <c r="E16" s="44" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F16" s="44" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="75" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCNAYARMX/National/Data/CCNayarTemplate2020Nacionalv0.5.xlsx
+++ b/Projects/CCNAYARMX/National/Data/CCNayarTemplate2020Nacionalv0.5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -89,9 +89,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$73</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$73</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$K$72</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
@@ -99,6 +99,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -110,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="409">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1725,9 +1728,15 @@
     <t xml:space="preserve">survey_question_fk</t>
   </si>
   <si>
+    <t xml:space="preserve">parent_score_portion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Data_Column</t>
   </si>
   <si>
+    <t xml:space="preserve">dependency_on_scoring</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pass_Value</t>
   </si>
   <si>
@@ -1743,6 +1752,9 @@
     <t xml:space="preserve">Minimum facings met</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Worth 50% of total Points available for Platform. REQUIRES PASSING RESULTS FROM "Botellas Necesarias", "Empaques Mandatorios" and "Llena al 75%% KPIs</t>
   </si>
   <si>
@@ -1834,9 +1846,6 @@
   </si>
   <si>
     <t xml:space="preserve">Enfriador Rojo - Sabores - Nacional,Categorizador - Sabores - Nacional,Enfriador Rojo y Categorizador - Sabores - Nacional,Puerta Dedicada - Sabores - Nacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">Bloques Colas 55% - Nacional,Bloques Sabores 25% - Nacional,Frentes Cattman - Nacional,Acomodo por Bloques - Nacional</t>
@@ -2861,29 +2870,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C81" activeCellId="0" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4210526315789"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.6963562753036"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="94.1578947368421"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="182.210526315789"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.6234817813765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="187.242914979757"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -2923,7 +2932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="8" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -2951,7 +2960,7 @@
       </c>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" s="12" customFormat="true" ht="61.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="12" customFormat="true" ht="61.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -2974,7 +2983,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -3001,7 +3010,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -3028,7 +3037,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="76" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="76" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -3055,7 +3064,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -3082,7 +3091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="51" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -3109,7 +3118,7 @@
       </c>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -3136,7 +3145,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -3163,7 +3172,7 @@
       </c>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
@@ -3188,7 +3197,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -3219,7 +3228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
@@ -3242,7 +3251,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="145" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="145" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -3300,7 +3309,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>13</v>
       </c>
@@ -3327,7 +3336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="125" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="125" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>14</v>
       </c>
@@ -3354,7 +3363,7 @@
       </c>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="32" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
@@ -3381,7 +3390,7 @@
       </c>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
@@ -3406,7 +3415,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>17</v>
       </c>
@@ -3431,7 +3440,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
@@ -3456,7 +3465,7 @@
       </c>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>19</v>
       </c>
@@ -3481,7 +3490,7 @@
       </c>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
@@ -3506,7 +3515,7 @@
       </c>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>21</v>
       </c>
@@ -3531,7 +3540,7 @@
       </c>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>22</v>
       </c>
@@ -3558,7 +3567,7 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>84</v>
       </c>
@@ -3581,7 +3590,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>23</v>
       </c>
@@ -3608,7 +3617,7 @@
       </c>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>24</v>
       </c>
@@ -3637,7 +3646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>25</v>
       </c>
@@ -3664,7 +3673,7 @@
       </c>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>26</v>
       </c>
@@ -3691,7 +3700,7 @@
       </c>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>97</v>
       </c>
@@ -3714,7 +3723,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>27</v>
       </c>
@@ -3741,7 +3750,7 @@
       </c>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>28</v>
       </c>
@@ -3770,7 +3779,7 @@
       </c>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="39" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>29</v>
       </c>
@@ -3799,7 +3808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>30</v>
       </c>
@@ -3828,7 +3837,7 @@
       </c>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>31</v>
       </c>
@@ -3857,7 +3866,7 @@
       </c>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -3882,7 +3891,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="46" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>32</v>
       </c>
@@ -3911,7 +3920,7 @@
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="31" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>33</v>
       </c>
@@ -3973,7 +3982,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>35</v>
       </c>
@@ -4037,7 +4046,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>37</v>
       </c>
@@ -4060,7 +4069,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>38</v>
       </c>
@@ -4091,7 +4100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="22" t="n">
         <v>39</v>
       </c>
@@ -4116,7 +4125,7 @@
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
     </row>
-    <row r="46" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="22" t="n">
         <v>39</v>
       </c>
@@ -4141,7 +4150,7 @@
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
     </row>
-    <row r="47" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="n">
         <v>40</v>
       </c>
@@ -4168,7 +4177,7 @@
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
     </row>
-    <row r="48" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="n">
         <v>41</v>
       </c>
@@ -4195,7 +4204,7 @@
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="22" t="n">
         <v>42</v>
       </c>
@@ -4222,7 +4231,7 @@
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="n">
         <v>43</v>
       </c>
@@ -4249,7 +4258,7 @@
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
     </row>
-    <row r="51" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="22" t="n">
         <v>44</v>
       </c>
@@ -4276,7 +4285,7 @@
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
     </row>
-    <row r="52" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="22" t="n">
         <v>45</v>
       </c>
@@ -4301,7 +4310,7 @@
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
     </row>
-    <row r="53" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="22" t="n">
         <v>45</v>
       </c>
@@ -4328,7 +4337,7 @@
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
     </row>
-    <row r="54" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="22" t="n">
         <v>46</v>
       </c>
@@ -4355,7 +4364,7 @@
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
     </row>
-    <row r="55" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="n">
         <v>47</v>
       </c>
@@ -4382,7 +4391,7 @@
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
     </row>
-    <row r="56" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="n">
         <v>48</v>
       </c>
@@ -4409,7 +4418,7 @@
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
     </row>
-    <row r="57" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="22" t="n">
         <v>49</v>
       </c>
@@ -4436,7 +4445,7 @@
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
     </row>
-    <row r="58" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22" t="n">
         <v>50</v>
       </c>
@@ -4463,7 +4472,7 @@
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
     </row>
-    <row r="59" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="n">
         <v>51</v>
       </c>
@@ -4492,7 +4501,7 @@
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
     </row>
-    <row r="60" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="21.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="22" t="n">
         <v>52</v>
       </c>
@@ -4519,7 +4528,7 @@
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
     </row>
-    <row r="61" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="26.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="n">
         <v>53</v>
       </c>
@@ -4546,7 +4555,7 @@
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
     </row>
-    <row r="62" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="n">
         <v>54</v>
       </c>
@@ -4573,7 +4582,7 @@
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
     </row>
-    <row r="63" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="22" t="n">
         <v>55</v>
       </c>
@@ -4600,7 +4609,7 @@
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
     </row>
-    <row r="64" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="32.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="n">
         <v>56</v>
       </c>
@@ -4627,7 +4636,7 @@
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
     </row>
-    <row r="65" s="30" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="30" customFormat="true" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>63</v>
       </c>
@@ -4650,7 +4659,7 @@
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
     </row>
-    <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>64</v>
       </c>
@@ -4673,7 +4682,7 @@
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>65</v>
       </c>
@@ -4704,7 +4713,7 @@
       </c>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>66</v>
       </c>
@@ -4735,7 +4744,7 @@
       </c>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>67</v>
       </c>
@@ -4766,7 +4775,7 @@
       </c>
       <c r="K69" s="19"/>
     </row>
-    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>68</v>
       </c>
@@ -4797,7 +4806,7 @@
       </c>
       <c r="K70" s="19"/>
     </row>
-    <row r="71" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>69</v>
       </c>
@@ -4830,7 +4839,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>70</v>
       </c>
@@ -4853,7 +4862,7 @@
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
     </row>
-    <row r="73" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="28.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="22" t="n">
         <v>76</v>
       </c>
@@ -4884,7 +4893,7 @@
       <c r="J73" s="25"/>
       <c r="K73" s="25"/>
     </row>
-    <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>77</v>
       </c>
@@ -4909,7 +4918,7 @@
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="n">
         <v>79</v>
       </c>
@@ -4930,7 +4939,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>80</v>
       </c>
@@ -4968,7 +4977,15 @@
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:K76"/>
+  <autoFilter ref="A1:K76">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Cattman Mercadeo - Nacional"/>
+        <filter val="Cattman Portafolio - Nacional"/>
+        <filter val="Frentes Cattman - Nacional"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="I18:I24"/>
   </mergeCells>
@@ -4997,9 +5014,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.4574898785425"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5085,11 +5102,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.0607287449393"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5105,7 +5122,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E1" s="77" t="s">
         <v>4</v>
@@ -5125,13 +5142,13 @@
         <v>136</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>135</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5145,13 +5162,13 @@
         <v>136</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>137</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5165,13 +5182,13 @@
         <v>136</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>156</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5185,13 +5202,13 @@
         <v>136</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>157</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,13 +5222,13 @@
         <v>136</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>157</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -5239,14 +5256,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="75.7327935222672"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="77.7692307692308"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="64.7004048582996"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5271,16 +5288,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="83" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H1" s="84" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -5313,10 +5330,10 @@
         <v>205</v>
       </c>
       <c r="J2" s="85" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5336,20 +5353,20 @@
         <v>126</v>
       </c>
       <c r="F3" s="85" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G3" s="85"/>
       <c r="H3" s="87" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="I3" s="85" t="s">
         <v>205</v>
       </c>
       <c r="J3" s="85" t="s">
+        <v>347</v>
+      </c>
+      <c r="K3" s="31" t="s">
         <v>344</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -5370,24 +5387,24 @@
   </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.3481781376518"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.3805668016194"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="117.400809716599"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="120.615384615385"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="133.46963562753"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="106.477732793522"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="137.004048582996"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
@@ -5408,28 +5425,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>9</v>
@@ -5461,10 +5478,10 @@
         <v>14</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -5495,10 +5512,10 @@
         <v>14</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -5528,10 +5545,10 @@
         <v>14</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5561,13 +5578,13 @@
         <v>14</v>
       </c>
       <c r="I5" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="K5" s="10" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L5" s="10" t="n">
         <v>1</v>
@@ -5600,13 +5617,13 @@
         <v>14</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L6" s="10" t="n">
         <v>1</v>
@@ -5634,17 +5651,17 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -5652,7 +5669,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="n">
         <v>37</v>
       </c>
@@ -5672,10 +5689,10 @@
         <v>14</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -5706,7 +5723,7 @@
         <v>189</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -5734,10 +5751,10 @@
         <v>14</v>
       </c>
       <c r="I10" s="80" t="s">
+        <v>365</v>
+      </c>
+      <c r="J10" s="78" t="s">
         <v>363</v>
-      </c>
-      <c r="J10" s="78" t="s">
-        <v>361</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -5765,10 +5782,10 @@
         <v>14</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="J11" s="78" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
@@ -5796,10 +5813,10 @@
         <v>14</v>
       </c>
       <c r="I12" s="78" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J12" s="78" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -5816,7 +5833,7 @@
         <v>105</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E13" s="92"/>
       <c r="F13" s="92"/>
@@ -5825,10 +5842,10 @@
         <v>14</v>
       </c>
       <c r="I13" s="93" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J13" s="92" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K13" s="92"/>
       <c r="L13" s="92"/>
@@ -5937,7 +5954,7 @@
         <v>220</v>
       </c>
       <c r="F2" s="96" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G2" s="96" t="s">
         <v>208</v>
@@ -5957,7 +5974,7 @@
         <v>211</v>
       </c>
       <c r="N2" s="44" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O2" s="98" t="s">
         <v>49</v>
@@ -5991,13 +6008,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.5222672064777"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.4493927125506"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="53.9878542510122"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="67.2712550607288"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="79.6963562753036"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6012,7 +6029,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -6021,25 +6038,25 @@
         <v>213</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -6065,22 +6082,22 @@
         <v>131</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>210</v>
@@ -6121,8 +6138,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.9554655870445"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6168,19 +6185,19 @@
         <v>17</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G2" s="78" t="s">
         <v>211</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6210,11 +6227,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.1295546558704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6226,7 +6243,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D1" s="99"/>
       <c r="E1" s="101"/>
@@ -6243,7 +6260,7 @@
         <v>189</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D2" s="102"/>
       <c r="E2" s="102"/>
@@ -6398,14 +6415,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="137.753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="141.502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6417,25 +6434,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D1" s="99" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E1" s="101" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F1" s="99" t="s">
         <v>285</v>
       </c>
       <c r="G1" s="101" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H1" s="99" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I1" s="101" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6449,19 +6466,19 @@
         <v>190</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E2" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="102" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G2" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="102" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I2" s="102" t="n">
         <v>1</v>
@@ -6478,19 +6495,19 @@
         <v>190</v>
       </c>
       <c r="D3" s="102" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E3" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="102" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G3" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="102" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I3" s="102" t="n">
         <v>1</v>
@@ -6507,13 +6524,13 @@
         <v>190</v>
       </c>
       <c r="D4" s="102" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E4" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G4" s="102" t="n">
         <v>3</v>
@@ -6536,19 +6553,19 @@
         <v>190</v>
       </c>
       <c r="D5" s="102" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E5" s="102" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G5" s="102" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="103" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I5" s="102" t="n">
         <v>1</v>
@@ -6580,14 +6597,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="96.6194331983806"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="94.1578947368421"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -6777,21 +6794,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="116.975708502024"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="120.080971659919"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.8380566801619"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="109.368421052632"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="112.368421052632"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="65.663967611336"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.6720647773279"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -7266,14 +7283,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="54.0931174089069"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -7406,11 +7423,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="107.975708502024"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="110.866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="158"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="162.392712550607"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -7678,14 +7695,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="78.3036437246964"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="106.692307692308"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="113.331983805668"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="109.582995951417"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="116.331983805668"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="64.4858299595142"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="66.0931174089069"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -8267,20 +8284,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="79.1619433198381"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="81.1943319838057"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -8603,19 +8620,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.0607287449393"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="95.0161943319838"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="97.587044534413"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -8812,26 +8829,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.587044534413"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="89.9797570850202"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.0485829959514"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="92.4453441295547"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8853,8 +8872,14 @@
       <c r="G1" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="72" t="n">
         <v>40</v>
       </c>
@@ -8865,17 +8890,21 @@
         <v>138</v>
       </c>
       <c r="D2" s="65"/>
-      <c r="E2" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="F2" s="44" t="n">
+      <c r="E2" s="65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="65"/>
+      <c r="H2" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="75" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="75" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="72" t="n">
         <v>41</v>
       </c>
@@ -8886,17 +8915,23 @@
         <v>142</v>
       </c>
       <c r="D3" s="65"/>
-      <c r="E3" s="44" t="s">
-        <v>327</v>
-      </c>
-      <c r="F3" s="44" t="n">
+      <c r="E3" s="65" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="H3" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="72" t="n">
         <v>42</v>
       </c>
@@ -8907,17 +8942,23 @@
         <v>145</v>
       </c>
       <c r="D4" s="52"/>
-      <c r="E4" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="F4" s="44" t="n">
+      <c r="E4" s="65" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="H4" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="72" t="n">
         <v>43</v>
       </c>
@@ -8930,17 +8971,23 @@
       <c r="D5" s="65" t="n">
         <v>28</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="65" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="H5" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="I5" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="G5" s="75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="72" t="n">
         <v>44</v>
       </c>
@@ -8951,17 +8998,21 @@
         <v>152</v>
       </c>
       <c r="D6" s="65"/>
-      <c r="E6" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="F6" s="44" t="n">
+      <c r="E6" s="65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6" s="65"/>
+      <c r="H6" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="75" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="75" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="72" t="n">
         <v>46</v>
       </c>
@@ -8972,17 +9023,21 @@
         <v>159</v>
       </c>
       <c r="D7" s="65"/>
-      <c r="E7" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="F7" s="44" t="n">
+      <c r="E7" s="65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="G7" s="65"/>
+      <c r="H7" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="75" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="75" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="72" t="n">
         <v>47</v>
       </c>
@@ -8993,17 +9048,23 @@
         <v>161</v>
       </c>
       <c r="D8" s="52"/>
-      <c r="E8" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="F8" s="44" t="n">
+      <c r="E8" s="65" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="H8" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="72" t="n">
         <v>48</v>
       </c>
@@ -9016,17 +9077,23 @@
       <c r="D9" s="65" t="n">
         <v>28</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="65" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="H9" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="I9" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="G9" s="75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="72" t="n">
         <v>49</v>
       </c>
@@ -9037,17 +9104,23 @@
         <v>162</v>
       </c>
       <c r="D10" s="52"/>
-      <c r="E10" s="44" t="s">
-        <v>327</v>
-      </c>
-      <c r="F10" s="44" t="n">
+      <c r="E10" s="65" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="H10" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="72" t="n">
         <v>50</v>
       </c>
@@ -9058,17 +9131,21 @@
         <v>164</v>
       </c>
       <c r="D11" s="65"/>
-      <c r="E11" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="F11" s="44" t="n">
+      <c r="E11" s="65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="G11" s="65"/>
+      <c r="H11" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="75" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="75" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="72" t="n">
         <v>52</v>
       </c>
@@ -9079,17 +9156,21 @@
         <v>167</v>
       </c>
       <c r="D12" s="65"/>
-      <c r="E12" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="F12" s="44" t="n">
+      <c r="E12" s="65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="G12" s="65"/>
+      <c r="H12" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="75" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="75" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="72" t="n">
         <v>53</v>
       </c>
@@ -9100,17 +9181,23 @@
         <v>168</v>
       </c>
       <c r="D13" s="65"/>
-      <c r="E13" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="F13" s="44" t="n">
+      <c r="E13" s="65" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="H13" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="72" t="n">
         <v>54</v>
       </c>
@@ -9123,17 +9210,23 @@
       <c r="D14" s="65" t="n">
         <v>28</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="65" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="H14" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="I14" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="G14" s="75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="72" t="n">
         <v>55</v>
       </c>
@@ -9144,17 +9237,23 @@
         <v>169</v>
       </c>
       <c r="D15" s="65"/>
-      <c r="E15" s="44" t="s">
-        <v>327</v>
-      </c>
-      <c r="F15" s="44" t="n">
+      <c r="E15" s="65" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="H15" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="72" t="n">
         <v>56</v>
       </c>
@@ -9165,15 +9264,39 @@
         <v>171</v>
       </c>
       <c r="D16" s="65"/>
-      <c r="E16" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="F16" s="44" t="n">
+      <c r="E16" s="65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="G16" s="65"/>
+      <c r="H16" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="75" t="s">
-        <v>326</v>
-      </c>
+      <c r="I16" s="75" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="65"/>
+      <c r="G17" s="74"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="65"/>
+      <c r="G18" s="74"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="65"/>
+      <c r="G19" s="74"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="65"/>
+      <c r="G20" s="74"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="65"/>
+      <c r="G21" s="74"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCNAYARMX/National/Data/CCNayarTemplate2020Nacionalv0.5.xlsx
+++ b/Projects/CCNAYARMX/National/Data/CCNayarTemplate2020Nacionalv0.5.xlsx
@@ -90,11 +90,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$73</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$K$72</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$76</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
@@ -102,6 +102,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$75</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1854,7 +1857,7 @@
     <t xml:space="preserve">sum</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera posicion - Nacional,Respeto - Nacional,SOCI - Nacional,Cap. Fria - Nacional,Llenado 75% - Nacional,Cattman Mercadeo - Nacional,Precios en cooler – Nacional,Cattman Portafolio – Nacional</t>
+    <t xml:space="preserve">Primera posicion - Nacional,Respeto - Nacional,SOCI - Nacional,Cap. Fria - Nacional,Llenado 75% - Nacional,Cattman Mercadeo - Nacional,Precios en cooler - Nacional,Cattman Portafolio - Nacional</t>
   </si>
   <si>
     <t xml:space="preserve">Comidas - Nacional,Plat. Dinamicas 1 - Nacional,Plat. Dinamicas 2 - Nacional</t>
@@ -2884,15 +2887,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.6234817813765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="187.242914979757"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="80.6599190283401"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="192.384615384615"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -5014,9 +5017,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5102,11 +5105,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.1336032388664"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5256,14 +5259,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="87.6234817813765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="77.7692307692308"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="79.8016194331984"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="66.3076923076923"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5394,17 +5397,17 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.663967611336"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.6315789473684"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.668016194332"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="120.615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="123.935222672065"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="137.004048582996"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="109.368421052632"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="140.647773279352"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="112.368421052632"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6761133603239"/>
@@ -6008,13 +6011,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.1295546558704"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.4858299595142"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="68.8785425101215"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.7732793522267"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="81.7327935222672"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6138,8 +6141,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -6227,11 +6230,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.1295546558704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6415,14 +6418,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="141.502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="145.36032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6597,14 +6600,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.0202429149798"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="99.1902834008097"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -6794,21 +6797,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="120.080971659919"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="123.295546558704"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.2995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="112.368421052632"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="65.663967611336"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="115.368421052632"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="67.4858299595142"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="36.6356275303644"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -7283,14 +7286,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="55.5951417004049"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -7423,11 +7426,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="110.866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="113.761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="87.6234817813765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="162.392712550607"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="166.890688259109"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -7695,14 +7698,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="87.6234817813765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="80.3400809716599"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="109.582995951417"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="116.331983805668"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="112.582995951417"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="119.546558704453"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="66.0931174089069"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="67.8056680161943"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -8284,20 +8287,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="81.1943319838057"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="83.3400809716599"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -8620,19 +8623,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6356275303644"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="97.587044534413"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="100.263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -8838,15 +8841,15 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.0485829959514"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="96.5141700404858"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
